--- a/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
+++ b/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
@@ -19,9 +19,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區文化段03500000地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段18360010地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100分之15</t>
+  </si>
+  <si>
+    <t>楊應雄</t>
+  </si>
+  <si>
+    <t>85年06月21日</t>
+  </si>
+  <si>
+    <t>68年08月27日</t>
+  </si>
+  <si>
+    <t>ax3S貝買</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超禍石年)</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>tmp248f1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,55 +129,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市梧棲區文化段0350-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段1836-0010 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100分之15</t>
-  </si>
-  <si>
-    <t>楊應雄</t>
-  </si>
-  <si>
-    <t>85年06月 21日</t>
-  </si>
-  <si>
-    <t>68年08月 27日</t>
-  </si>
-  <si>
-    <t>ax3-^S 貝買</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超禍石年)</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區文化段00261 -000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段03106-000 建號</t>
-  </si>
-  <si>
-    <t>85年10月 29日</t>
-  </si>
-  <si>
-    <t>68年11月 29日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
+    <t>臺中市梧棲區文化段00261000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段03106000建號</t>
+  </si>
+  <si>
+    <t>85年10月29日</t>
+  </si>
+  <si>
+    <t>68年11月29日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -102,10 +153,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>福特六和U204-1CA</t>
-  </si>
-  <si>
-    <t>98年09月 17日</t>
+    <t>福特六和U2041CA</t>
+  </si>
+  <si>
+    <t>98年09月17日</t>
   </si>
   <si>
     <t>名稱</t>
@@ -126,22 +177,22 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產、種 類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -177,16 +228,16 @@
     <t>中期信用放款</t>
   </si>
   <si>
-    <t>台灣土地銀行金門分行 金門縣金城鎮民生路</t>
-  </si>
-  <si>
-    <t>98年09月 15曰</t>
-  </si>
-  <si>
-    <t>99年05月 03日</t>
-  </si>
-  <si>
-    <t>98年08月 14日</t>
+    <t>台灣土地銀行金門分行金門縣金城鎮民生路</t>
+  </si>
+  <si>
+    <t>98年09月15曰</t>
+  </si>
+  <si>
+    <t>99年05月03日</t>
+  </si>
+  <si>
+    <t>98年08月14日</t>
   </si>
   <si>
     <t>借款</t>
@@ -219,10 +270,10 @@
     <t>金門縣國中路11號</t>
   </si>
   <si>
-    <t>87年10月 07日</t>
-  </si>
-  <si>
-    <t>98年10月 16日</t>
+    <t>87年10月07日</t>
+  </si>
+  <si>
+    <t>98年10月16日</t>
   </si>
   <si>
     <t>投資</t>
@@ -584,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,57 +663,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1758</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1758</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -680,25 +794,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -706,25 +820,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>290.76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -732,25 +846,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>71.04</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -768,22 +882,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -791,19 +905,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>1988</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
@@ -824,22 +938,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -847,14 +961,14 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -864,22 +978,22 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -897,22 +1011,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -920,22 +1034,22 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>3252782</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -943,22 +1057,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>892323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -966,22 +1080,22 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
         <v>1168104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -989,22 +1103,22 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2">
         <v>2957842</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1022,22 +1136,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1045,22 +1159,22 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>7760000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1068,22 +1182,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1091,22 +1205,22 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>40000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
+++ b/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -63,220 +63,139 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市梧棲區文化段03500000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>高雄市前鎮區愛群段18360010地號</t>
   </si>
   <si>
+    <t>100分之15</t>
+  </si>
+  <si>
+    <t>楊應雄</t>
+  </si>
+  <si>
+    <t>68年08月27日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>tmp248f1</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區文化段00261000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>100分之15</t>
-  </si>
-  <si>
-    <t>楊應雄</t>
-  </si>
-  <si>
-    <t>85年06月21日</t>
-  </si>
-  <si>
-    <t>68年08月27日</t>
-  </si>
-  <si>
-    <t>ax3S貝買</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超禍石年)</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-26</t>
-  </si>
-  <si>
-    <t>tmp248f1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區文化段00261000建號</t>
+    <t>85年10月29日</t>
   </si>
   <si>
     <t>高雄市前鎮區愛群段03106000建號</t>
   </si>
   <si>
-    <t>85年10月29日</t>
-  </si>
-  <si>
     <t>68年11月29日</t>
   </si>
   <si>
     <t>第一次登記</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>福特六和U2041CA</t>
+  </si>
+  <si>
+    <t>98年09月17日</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>福特六和U2041CA</t>
-  </si>
-  <si>
-    <t>98年09月17日</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>所‘有人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>中期擔保放款</t>
   </si>
   <si>
+    <t>台灣土地銀行金門分行金門縣金城鎮民生路</t>
+  </si>
+  <si>
+    <t>98年09月15曰</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
     <t>長期擔保放款</t>
   </si>
   <si>
     <t>中期信用放款</t>
   </si>
   <si>
-    <t>台灣土地銀行金門分行金門縣金城鎮民生路</t>
-  </si>
-  <si>
-    <t>98年09月15曰</t>
-  </si>
-  <si>
     <t>99年05月03日</t>
   </si>
   <si>
     <t>98年08月14日</t>
   </si>
   <si>
-    <t>借款</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
+    <t>金天地國際股份有限公司</t>
+  </si>
+  <si>
+    <t>金門縣光前路97號</t>
+  </si>
+  <si>
+    <t>87年10月07日</t>
+  </si>
+  <si>
+    <t>投資</t>
   </si>
   <si>
     <t>局淑貞</t>
   </si>
   <si>
-    <t>金天地國際股份有限公司</t>
-  </si>
-  <si>
     <t>金沙美股份有限公司</t>
   </si>
   <si>
-    <t>金門縣光前路97號</t>
-  </si>
-  <si>
     <t>金門縣國中路11號</t>
   </si>
   <si>
-    <t>87年10月07日</t>
-  </si>
-  <si>
     <t>98年10月16日</t>
-  </si>
-  <si>
-    <t>投資</t>
   </si>
 </sst>
 </file>
@@ -635,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,19 +603,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -705,19 +630,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>18</v>
@@ -726,57 +651,16 @@
         <v>1758</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>215</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1758</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
+      <c r="P2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>32.25</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +670,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -794,77 +678,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C1" s="1">
+        <v>290.76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
-        <v>290.76</v>
+        <v>71.04</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
         <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2">
-        <v>71.04</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -873,6 +731,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1988</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -882,45 +773,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1988</v>
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2">
-        <v>50000</v>
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +813,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3252782</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2">
+        <v>892323</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1168104</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2957842</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -938,289 +925,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="E1" s="1">
+        <v>7760000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3252782</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="2">
-        <v>892323</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1168104</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>90</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2957842</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2">
-        <v>7760000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>95</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>96</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="2">
-        <v>40000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
+++ b/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -69,21 +69,36 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市梧棲區文化段03500000地號</t>
+  </si>
+  <si>
     <t>高雄市前鎮區愛群段18360010地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>100分之15</t>
   </si>
   <si>
     <t>楊應雄</t>
   </si>
   <si>
+    <t>85年06月21日</t>
+  </si>
+  <si>
     <t>68年08月27日</t>
   </si>
   <si>
+    <t>ax3S貝買</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
+    <t>(超禍石年)</t>
+  </si>
+  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -102,13 +117,10 @@
     <t>臺中市梧棲區文化段00261000建號</t>
   </si>
   <si>
-    <t>全部</t>
+    <t>高雄市前鎮區愛群段03106000建號</t>
   </si>
   <si>
     <t>85年10月29日</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段03106000建號</t>
   </si>
   <si>
     <t>68年11月29日</t>
@@ -554,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,54 +624,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>1758</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>215</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1758</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
         <v>0.15</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>32.25</v>
       </c>
     </row>
@@ -670,59 +735,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>290.76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1">
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1758</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>290.76</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>71.04</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1758</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>71.04</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -731,39 +903,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1988</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -773,39 +912,112 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1988</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1988</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -814,6 +1026,131 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3252782</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3252782</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2">
+        <v>892323</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1168104</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2957842</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -823,170 +1160,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
-        <v>3252782</v>
+        <v>7760000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
-        <v>892323</v>
+        <v>7760000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
-        <v>1168104</v>
+        <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
-        <v>2957842</v>
+        <v>40000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7760000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>96</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2">
-        <v>40000</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
+++ b/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>第一次登記</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>福特六和U2041CA</t>
@@ -904,38 +907,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1">
-        <v>1988</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1988</v>
@@ -944,13 +968,34 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1758</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -968,14 +1013,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -985,16 +1030,16 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1002,22 +1047,22 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1035,22 +1080,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1">
         <v>3252782</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1058,22 +1103,22 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2">
         <v>3252782</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1081,22 +1126,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
         <v>892323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1104,22 +1149,22 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2">
         <v>1168104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1127,22 +1172,22 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2">
         <v>2957842</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1163,19 +1208,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1">
         <v>7760000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1186,19 +1231,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
         <v>7760000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1206,22 +1251,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1232,19 +1277,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>40000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
+++ b/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -129,6 +129,9 @@
     <t>第一次登記</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>98年09月17日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及#</t>
@@ -820,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -873,7 +879,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -959,7 +965,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1988</v>
@@ -968,7 +974,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -977,7 +983,7 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1013,14 +1019,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1030,16 +1036,16 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1047,22 +1053,22 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1080,22 +1086,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1">
         <v>3252782</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1103,22 +1109,22 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2">
         <v>3252782</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1126,22 +1132,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2">
         <v>892323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1149,22 +1155,22 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2">
         <v>1168104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1172,22 +1178,22 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2">
         <v>2957842</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1208,19 +1214,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>7760000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1231,19 +1237,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>7760000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1251,22 +1257,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1277,19 +1283,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>40000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
+++ b/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
@@ -10,16 +10,15 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="其他有價證券" sheetId="4" r:id="rId4"/>
-    <sheet name="債務" sheetId="5" r:id="rId5"/>
-    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="4" r:id="rId4"/>
+    <sheet name="事業投資" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -142,33 +141,6 @@
   </si>
   <si>
     <t>car</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>中期擔保放款</t>
@@ -1011,7 +983,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1022,53 +994,111 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
+        <v>3252782</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2">
+        <v>3252782</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2">
+        <v>892323</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1168104</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2957842</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1077,131 +1107,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3252782</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3252782</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2">
-        <v>892323</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1168104</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>90</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2957842</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1214,19 +1119,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1">
         <v>7760000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1237,19 +1142,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>7760000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1257,22 +1162,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1283,19 +1188,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2">
         <v>40000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
+++ b/legislator/property/output/normal/楊應雄_2012-04-26_財產申報表_tmp248f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -143,52 +143,70 @@
     <t>car</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>中期擔保放款</t>
   </si>
   <si>
+    <t>長期擔保放款</t>
+  </si>
+  <si>
+    <t>中期信用放款</t>
+  </si>
+  <si>
     <t>台灣土地銀行金門分行金門縣金城鎮民生路</t>
   </si>
   <si>
     <t>98年09月15曰</t>
   </si>
   <si>
+    <t>99年05月03日</t>
+  </si>
+  <si>
+    <t>98年08月14日</t>
+  </si>
+  <si>
     <t>借款</t>
   </si>
   <si>
-    <t>長期擔保放款</t>
-  </si>
-  <si>
-    <t>中期信用放款</t>
-  </si>
-  <si>
-    <t>99年05月03日</t>
-  </si>
-  <si>
-    <t>98年08月14日</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>局淑貞</t>
   </si>
   <si>
     <t>金天地國際股份有限公司</t>
   </si>
   <si>
+    <t>金沙美股份有限公司</t>
+  </si>
+  <si>
     <t>金門縣光前路97號</t>
   </si>
   <si>
+    <t>金門縣國中路11號</t>
+  </si>
+  <si>
     <t>87年10月07日</t>
   </si>
   <si>
+    <t>98年10月16日</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>局淑貞</t>
-  </si>
-  <si>
-    <t>金沙美股份有限公司</t>
-  </si>
-  <si>
-    <t>金門縣國中路11號</t>
-  </si>
-  <si>
-    <t>98年10月16日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -983,122 +1001,227 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3252782</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <v>3252782</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1758</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2">
         <v>892323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1758</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>1168104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1758</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>2957842</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1758</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1108,33 +1231,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7760000</v>
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>94</v>
       </c>
@@ -1142,45 +1286,87 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
         <v>7760000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1758</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1758</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>96</v>
       </c>
@@ -1188,19 +1374,40 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2">
         <v>40000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1758</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
